--- a/Admin/Filip/spring/TimeSheet_Week2.xlsx
+++ b/Admin/Filip/spring/TimeSheet_Week2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\OneDrive\Documents\Capstone\SeniorDesignProject\Admin\Filip\spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD623FF-114B-4AB9-8F65-15D74334FB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB3AB96-245B-4219-B0B1-C8B7FA02268E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,10 +758,12 @@
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
       <c r="I8" s="10">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -865,11 +867,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="10">
         <f>SUM(I6:I12)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
